--- a/Finflux Automation Excels/Client/4903-DISB-REPAYMENT-EXACTDATE-MoreAmt.xlsx
+++ b/Finflux Automation Excels/Client/4903-DISB-REPAYMENT-EXACTDATE-MoreAmt.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -192,12 +192,6 @@
     <t>L88</t>
   </si>
   <si>
-    <t>$ 1,190.39</t>
-  </si>
-  <si>
-    <t>$ 1,200</t>
-  </si>
-  <si>
     <t>$ 9.61</t>
   </si>
   <si>
@@ -205,6 +199,12 @@
   </si>
   <si>
     <t>$ 16.01</t>
+  </si>
+  <si>
+    <t>$ 1,190.39</t>
+  </si>
+  <si>
+    <t>$ 1,200</t>
   </si>
 </sst>
 </file>
@@ -1751,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,7 +1814,7 @@
         <v>48</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1839,8 +1839,8 @@
       <c r="G3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>55</v>
+      <c r="I3" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1865,8 +1865,8 @@
       <c r="G4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>56</v>
+      <c r="H4" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1878,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,8 +1938,8 @@
       <c r="G2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H2" t="s">
-        <v>57</v>
+      <c r="H2" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1964,8 +1964,8 @@
       <c r="G3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
-        <v>57</v>
+      <c r="I3" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1999,8 +1999,8 @@
       <c r="G5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H5" t="s">
-        <v>58</v>
+      <c r="H5" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2025,8 +2025,8 @@
       <c r="G6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I6" t="s">
-        <v>58</v>
+      <c r="I6" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2060,8 +2060,8 @@
       <c r="G8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H8" t="s">
-        <v>59</v>
+      <c r="H8" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2086,8 +2086,8 @@
       <c r="G9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I9" t="s">
-        <v>59</v>
+      <c r="I9" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Finflux Automation Excels/Client/4903-DISB-REPAYMENT-EXACTDATE-MoreAmt.xlsx
+++ b/Finflux Automation Excels/Client/4903-DISB-REPAYMENT-EXACTDATE-MoreAmt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
@@ -214,7 +214,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +224,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -278,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -310,11 +317,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1792,25 +1807,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>155</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>42036</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>48</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -1818,25 +1833,25 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>156</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>42036</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>44</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -1844,25 +1859,25 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>157</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>42036</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="12" t="s">
@@ -1878,215 +1893,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="15"/>
+    <col min="3" max="3" width="21.28515625" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="16">
         <v>141</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="17">
         <v>42036</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="16">
         <v>142</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="17">
         <v>42036</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="16">
         <v>158</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="17">
         <v>42064</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="16">
         <v>159</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="17">
         <v>42064</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="16">
         <v>160</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="17">
         <v>42095</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="16">
         <v>161</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="17">
         <v>42095</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="18" t="s">
         <v>57</v>
       </c>
     </row>
